--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Sema3f-Nrp2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Sema3f-Nrp2.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>16.820675</v>
+        <v>44.855544</v>
       </c>
       <c r="H2">
-        <v>50.462025</v>
+        <v>134.566632</v>
       </c>
       <c r="I2">
-        <v>0.8427583848046372</v>
+        <v>0.9269627513664965</v>
       </c>
       <c r="J2">
-        <v>0.8427583848046373</v>
+        <v>0.9269627513664968</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>35.31114333333333</v>
+        <v>70.23436</v>
       </c>
       <c r="N2">
-        <v>105.93343</v>
+        <v>210.70308</v>
       </c>
       <c r="O2">
-        <v>0.6187867769880316</v>
+        <v>0.7023186840741513</v>
       </c>
       <c r="P2">
-        <v>0.6187867769880318</v>
+        <v>0.7023186840741513</v>
       </c>
       <c r="Q2">
-        <v>593.9572658884166</v>
+        <v>3150.40042529184</v>
       </c>
       <c r="R2">
-        <v>5345.61539299575</v>
+        <v>28353.60382762656</v>
       </c>
       <c r="S2">
-        <v>0.5214877447129007</v>
+        <v>0.6510232597254726</v>
       </c>
       <c r="T2">
-        <v>0.5214877447129009</v>
+        <v>0.6510232597254727</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>16.820675</v>
+        <v>44.855544</v>
       </c>
       <c r="H3">
-        <v>50.462025</v>
+        <v>134.566632</v>
       </c>
       <c r="I3">
-        <v>0.8427583848046372</v>
+        <v>0.9269627513664965</v>
       </c>
       <c r="J3">
-        <v>0.8427583848046373</v>
+        <v>0.9269627513664968</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>19.654086</v>
       </c>
       <c r="O3">
-        <v>0.1148050103785518</v>
+        <v>0.06551129587759326</v>
       </c>
       <c r="P3">
-        <v>0.1148050103785518</v>
+        <v>0.06551129587759325</v>
       </c>
       <c r="Q3">
-        <v>110.19833100935</v>
+        <v>293.864906450928</v>
       </c>
       <c r="R3">
-        <v>991.7849790841499</v>
+        <v>2644.784158058352</v>
       </c>
       <c r="S3">
-        <v>0.09675288511410794</v>
+        <v>0.06072653107227847</v>
       </c>
       <c r="T3">
-        <v>0.09675288511410797</v>
+        <v>0.06072653107227847</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>16.820675</v>
+        <v>44.855544</v>
       </c>
       <c r="H4">
-        <v>50.462025</v>
+        <v>134.566632</v>
       </c>
       <c r="I4">
-        <v>0.8427583848046372</v>
+        <v>0.9269627513664965</v>
       </c>
       <c r="J4">
-        <v>0.8427583848046373</v>
+        <v>0.9269627513664968</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.250702333333333</v>
+        <v>4.268944666666666</v>
       </c>
       <c r="N4">
-        <v>12.752107</v>
+        <v>12.806834</v>
       </c>
       <c r="O4">
-        <v>0.07448862167812857</v>
+        <v>0.04268793224112385</v>
       </c>
       <c r="P4">
-        <v>0.07448862167812859</v>
+        <v>0.04268793224112385</v>
       </c>
       <c r="Q4">
-        <v>71.49968247074165</v>
+        <v>191.485835329232</v>
       </c>
       <c r="R4">
-        <v>643.4971422366749</v>
+        <v>1723.372517963088</v>
       </c>
       <c r="S4">
-        <v>0.06277591049178331</v>
+        <v>0.03957012312037874</v>
       </c>
       <c r="T4">
-        <v>0.06277591049178334</v>
+        <v>0.03957012312037875</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>16.820675</v>
+        <v>44.855544</v>
       </c>
       <c r="H5">
-        <v>50.462025</v>
+        <v>134.566632</v>
       </c>
       <c r="I5">
-        <v>0.8427583848046372</v>
+        <v>0.9269627513664965</v>
       </c>
       <c r="J5">
-        <v>0.8427583848046373</v>
+        <v>0.9269627513664968</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>10.951915</v>
+        <v>18.948881</v>
       </c>
       <c r="N5">
-        <v>32.855745</v>
+        <v>56.846643</v>
       </c>
       <c r="O5">
-        <v>0.191919590955288</v>
+        <v>0.1894820878071316</v>
       </c>
       <c r="P5">
-        <v>0.191919590955288</v>
+        <v>0.1894820878071315</v>
       </c>
       <c r="Q5">
-        <v>184.218602842625</v>
+        <v>849.962365446264</v>
       </c>
       <c r="R5">
-        <v>1657.967425583625</v>
+        <v>7649.661289016376</v>
       </c>
       <c r="S5">
-        <v>0.1617418444858452</v>
+        <v>0.1756428374483668</v>
       </c>
       <c r="T5">
-        <v>0.1617418444858452</v>
+        <v>0.1756428374483668</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>4.393449</v>
       </c>
       <c r="I6">
-        <v>0.07337430439942808</v>
+        <v>0.03026428998407557</v>
       </c>
       <c r="J6">
-        <v>0.07337430439942808</v>
+        <v>0.03026428998407558</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>35.31114333333333</v>
+        <v>70.23436</v>
       </c>
       <c r="N6">
-        <v>105.93343</v>
+        <v>210.70308</v>
       </c>
       <c r="O6">
-        <v>0.6187867769880316</v>
+        <v>0.7023186840741513</v>
       </c>
       <c r="P6">
-        <v>0.6187867769880318</v>
+        <v>0.7023186840741513</v>
       </c>
       <c r="Q6">
-        <v>51.71256912223001</v>
+        <v>102.85702623588</v>
       </c>
       <c r="R6">
-        <v>465.41312210007</v>
+        <v>925.7132361229201</v>
       </c>
       <c r="S6">
-        <v>0.04540304933306085</v>
+        <v>0.02125517631605447</v>
       </c>
       <c r="T6">
-        <v>0.04540304933306086</v>
+        <v>0.02125517631605448</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>4.393449</v>
       </c>
       <c r="I7">
-        <v>0.07337430439942808</v>
+        <v>0.03026428998407557</v>
       </c>
       <c r="J7">
-        <v>0.07337430439942808</v>
+        <v>0.03026428998407558</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>19.654086</v>
       </c>
       <c r="O7">
-        <v>0.1148050103785518</v>
+        <v>0.06551129587759326</v>
       </c>
       <c r="P7">
-        <v>0.1148050103785518</v>
+        <v>0.06551129587759325</v>
       </c>
       <c r="Q7">
         <v>9.594358275846002</v>
@@ -883,10 +883,10 @@
         <v>86.34922448261401</v>
       </c>
       <c r="S7">
-        <v>0.008423737778095361</v>
+        <v>0.001982652855672057</v>
       </c>
       <c r="T7">
-        <v>0.008423737778095363</v>
+        <v>0.001982652855672057</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>4.393449</v>
       </c>
       <c r="I8">
-        <v>0.07337430439942808</v>
+        <v>0.03026428998407557</v>
       </c>
       <c r="J8">
-        <v>0.07337430439942808</v>
+        <v>0.03026428998407558</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>4.250702333333333</v>
+        <v>4.268944666666666</v>
       </c>
       <c r="N8">
-        <v>12.752107</v>
+        <v>12.806834</v>
       </c>
       <c r="O8">
-        <v>0.07448862167812857</v>
+        <v>0.04268793224112385</v>
       </c>
       <c r="P8">
-        <v>0.07448862167812859</v>
+        <v>0.04268793224112385</v>
       </c>
       <c r="Q8">
-        <v>6.225081305227</v>
+        <v>6.251796892274</v>
       </c>
       <c r="R8">
-        <v>56.025731747043</v>
+        <v>56.266172030466</v>
       </c>
       <c r="S8">
-        <v>0.005465550801304842</v>
+        <v>0.001291919960165941</v>
       </c>
       <c r="T8">
-        <v>0.005465550801304844</v>
+        <v>0.001291919960165942</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>4.393449</v>
       </c>
       <c r="I9">
-        <v>0.07337430439942808</v>
+        <v>0.03026428998407557</v>
       </c>
       <c r="J9">
-        <v>0.07337430439942808</v>
+        <v>0.03026428998407558</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>10.951915</v>
+        <v>18.948881</v>
       </c>
       <c r="N9">
-        <v>32.855745</v>
+        <v>56.846643</v>
       </c>
       <c r="O9">
-        <v>0.191919590955288</v>
+        <v>0.1894820878071316</v>
       </c>
       <c r="P9">
-        <v>0.191919590955288</v>
+        <v>0.1894820878071315</v>
       </c>
       <c r="Q9">
-        <v>16.038893334945</v>
+        <v>27.75031409352301</v>
       </c>
       <c r="R9">
-        <v>144.350040014505</v>
+        <v>249.752826841707</v>
       </c>
       <c r="S9">
-        <v>0.01408196648696702</v>
+        <v>0.0057345408521831</v>
       </c>
       <c r="T9">
-        <v>0.01408196648696703</v>
+        <v>0.005734540852183101</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.561668</v>
+        <v>1.967437666666666</v>
       </c>
       <c r="H10">
-        <v>4.685003999999999</v>
+        <v>5.902312999999999</v>
       </c>
       <c r="I10">
-        <v>0.07824351884101489</v>
+        <v>0.04065810533109158</v>
       </c>
       <c r="J10">
-        <v>0.07824351884101489</v>
+        <v>0.0406581053310916</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>35.31114333333333</v>
+        <v>70.23436</v>
       </c>
       <c r="N10">
-        <v>105.93343</v>
+        <v>210.70308</v>
       </c>
       <c r="O10">
-        <v>0.6187867769880316</v>
+        <v>0.7023186840741513</v>
       </c>
       <c r="P10">
-        <v>0.6187867769880318</v>
+        <v>0.7023186840741513</v>
       </c>
       <c r="Q10">
-        <v>55.14428258707999</v>
+        <v>138.1817253582266</v>
       </c>
       <c r="R10">
-        <v>496.2985432837199</v>
+        <v>1243.63552822404</v>
       </c>
       <c r="S10">
-        <v>0.04841605484383393</v>
+        <v>0.02855494703308048</v>
       </c>
       <c r="T10">
-        <v>0.04841605484383395</v>
+        <v>0.02855494703308049</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.561668</v>
+        <v>1.967437666666666</v>
       </c>
       <c r="H11">
-        <v>4.685003999999999</v>
+        <v>5.902312999999999</v>
       </c>
       <c r="I11">
-        <v>0.07824351884101489</v>
+        <v>0.04065810533109158</v>
       </c>
       <c r="J11">
-        <v>0.07824351884101489</v>
+        <v>0.0406581053310916</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>19.654086</v>
       </c>
       <c r="O11">
-        <v>0.1148050103785518</v>
+        <v>0.06551129587759326</v>
       </c>
       <c r="P11">
-        <v>0.1148050103785518</v>
+        <v>0.06551129587759325</v>
       </c>
       <c r="Q11">
-        <v>10.231052391816</v>
+        <v>12.88939636676866</v>
       </c>
       <c r="R11">
-        <v>92.07947152634398</v>
+        <v>116.004567300918</v>
       </c>
       <c r="S11">
-        <v>0.00898274799259713</v>
+        <v>0.002663565168167493</v>
       </c>
       <c r="T11">
-        <v>0.008982747992597132</v>
+        <v>0.002663565168167493</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.561668</v>
+        <v>1.967437666666666</v>
       </c>
       <c r="H12">
-        <v>4.685003999999999</v>
+        <v>5.902312999999999</v>
       </c>
       <c r="I12">
-        <v>0.07824351884101489</v>
+        <v>0.04065810533109158</v>
       </c>
       <c r="J12">
-        <v>0.07824351884101489</v>
+        <v>0.0406581053310916</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>4.250702333333333</v>
+        <v>4.268944666666666</v>
       </c>
       <c r="N12">
-        <v>12.752107</v>
+        <v>12.806834</v>
       </c>
       <c r="O12">
-        <v>0.07448862167812857</v>
+        <v>0.04268793224112385</v>
       </c>
       <c r="P12">
-        <v>0.07448862167812859</v>
+        <v>0.04268793224112385</v>
       </c>
       <c r="Q12">
-        <v>6.638185811491999</v>
+        <v>8.398882534115776</v>
       </c>
       <c r="R12">
-        <v>59.74367230342799</v>
+        <v>75.58994280704198</v>
       </c>
       <c r="S12">
-        <v>0.005828251873713884</v>
+        <v>0.001735610445426114</v>
       </c>
       <c r="T12">
-        <v>0.005828251873713885</v>
+        <v>0.001735610445426115</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.561668</v>
+        <v>1.967437666666666</v>
       </c>
       <c r="H13">
-        <v>4.685003999999999</v>
+        <v>5.902312999999999</v>
       </c>
       <c r="I13">
-        <v>0.07824351884101489</v>
+        <v>0.04065810533109158</v>
       </c>
       <c r="J13">
-        <v>0.07824351884101489</v>
+        <v>0.0406581053310916</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>10.951915</v>
+        <v>18.948881</v>
       </c>
       <c r="N13">
-        <v>32.855745</v>
+        <v>56.846643</v>
       </c>
       <c r="O13">
-        <v>0.191919590955288</v>
+        <v>0.1894820878071316</v>
       </c>
       <c r="P13">
-        <v>0.191919590955288</v>
+        <v>0.1894820878071315</v>
       </c>
       <c r="Q13">
-        <v>17.10325519422</v>
+        <v>37.28074222058433</v>
       </c>
       <c r="R13">
-        <v>153.92929674798</v>
+        <v>335.526679985259</v>
       </c>
       <c r="S13">
-        <v>0.01501646413086995</v>
+        <v>0.0077039826844175</v>
       </c>
       <c r="T13">
-        <v>0.01501646413086995</v>
+        <v>0.007703982684417502</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,22 +1275,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.1122456666666666</v>
+        <v>0.1023373333333333</v>
       </c>
       <c r="H14">
-        <v>0.336737</v>
+        <v>0.307012</v>
       </c>
       <c r="I14">
-        <v>0.005623791954919746</v>
+        <v>0.002114853318336234</v>
       </c>
       <c r="J14">
-        <v>0.005623791954919746</v>
+        <v>0.002114853318336234</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>35.31114333333333</v>
+        <v>70.23436</v>
       </c>
       <c r="N14">
-        <v>105.93343</v>
+        <v>210.70308</v>
       </c>
       <c r="O14">
-        <v>0.6187867769880316</v>
+        <v>0.7023186840741513</v>
       </c>
       <c r="P14">
-        <v>0.6187867769880318</v>
+        <v>0.7023186840741513</v>
       </c>
       <c r="Q14">
-        <v>3.963522824212221</v>
+        <v>7.187597110773333</v>
       </c>
       <c r="R14">
-        <v>35.67170541791</v>
+        <v>64.68837399696</v>
       </c>
       <c r="S14">
-        <v>0.003479928098236012</v>
+        <v>0.001485300999543756</v>
       </c>
       <c r="T14">
-        <v>0.003479928098236012</v>
+        <v>0.001485300999543756</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,22 +1337,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.1122456666666666</v>
+        <v>0.1023373333333333</v>
       </c>
       <c r="H15">
-        <v>0.336737</v>
+        <v>0.307012</v>
       </c>
       <c r="I15">
-        <v>0.005623791954919746</v>
+        <v>0.002114853318336234</v>
       </c>
       <c r="J15">
-        <v>0.005623791954919746</v>
+        <v>0.002114853318336234</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>19.654086</v>
       </c>
       <c r="O15">
-        <v>0.1148050103785518</v>
+        <v>0.06551129587759326</v>
       </c>
       <c r="P15">
-        <v>0.1148050103785518</v>
+        <v>0.06551129587759325</v>
       </c>
       <c r="Q15">
-        <v>0.7353619952646665</v>
+        <v>0.6704489167813333</v>
       </c>
       <c r="R15">
-        <v>6.618257957381999</v>
+        <v>6.034040251032</v>
       </c>
       <c r="S15">
-        <v>0.0006456394937513777</v>
+        <v>0.0001385467814752349</v>
       </c>
       <c r="T15">
-        <v>0.0006456394937513778</v>
+        <v>0.0001385467814752349</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,22 +1399,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.1122456666666666</v>
+        <v>0.1023373333333333</v>
       </c>
       <c r="H16">
-        <v>0.336737</v>
+        <v>0.307012</v>
       </c>
       <c r="I16">
-        <v>0.005623791954919746</v>
+        <v>0.002114853318336234</v>
       </c>
       <c r="J16">
-        <v>0.005623791954919746</v>
+        <v>0.002114853318336234</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>4.250702333333333</v>
+        <v>4.268944666666666</v>
       </c>
       <c r="N16">
-        <v>12.752107</v>
+        <v>12.806834</v>
       </c>
       <c r="O16">
-        <v>0.07448862167812857</v>
+        <v>0.04268793224112385</v>
       </c>
       <c r="P16">
-        <v>0.07448862167812859</v>
+        <v>0.04268793224112385</v>
       </c>
       <c r="Q16">
-        <v>0.4771229172065554</v>
+        <v>0.4368724133342222</v>
       </c>
       <c r="R16">
-        <v>4.294106254858999</v>
+        <v>3.931851720007999</v>
       </c>
       <c r="S16">
-        <v>0.00041890851132652</v>
+        <v>9.027871515305309E-05</v>
       </c>
       <c r="T16">
-        <v>0.0004189085113265201</v>
+        <v>9.027871515305312E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,22 +1461,22 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.1122456666666666</v>
+        <v>0.1023373333333333</v>
       </c>
       <c r="H17">
-        <v>0.336737</v>
+        <v>0.307012</v>
       </c>
       <c r="I17">
-        <v>0.005623791954919746</v>
+        <v>0.002114853318336234</v>
       </c>
       <c r="J17">
-        <v>0.005623791954919746</v>
+        <v>0.002114853318336234</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>10.951915</v>
+        <v>18.948881</v>
       </c>
       <c r="N17">
-        <v>32.855745</v>
+        <v>56.846643</v>
       </c>
       <c r="O17">
-        <v>0.191919590955288</v>
+        <v>0.1894820878071316</v>
       </c>
       <c r="P17">
-        <v>0.191919590955288</v>
+        <v>0.1894820878071315</v>
       </c>
       <c r="Q17">
-        <v>1.229305000451666</v>
+        <v>1.939177951190667</v>
       </c>
       <c r="R17">
-        <v>11.063745004065</v>
+        <v>17.452601560716</v>
       </c>
       <c r="S17">
-        <v>0.001079315851605837</v>
+        <v>0.0004007268221641899</v>
       </c>
       <c r="T17">
-        <v>0.001079315851605837</v>
+        <v>0.0004007268221641899</v>
       </c>
     </row>
   </sheetData>
